--- a/TC-names.xlsx
+++ b/TC-names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghjuliasialelli/Documents/GitHub/ghjulia-internship/TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB1EB2-62A2-6D43-ACF8-D263031C228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE95CE4-F646-154F-AF9C-ACE6C9483327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1159">
   <si>
     <t>Sources</t>
   </si>
@@ -3347,9 +3347,6 @@
     <t>Joaquin</t>
   </si>
   <si>
-    <t>Kai-Tak</t>
-  </si>
-  <si>
     <t>Kammuri</t>
   </si>
   <si>
@@ -3428,9 +3425,6 @@
     <t>Nilofar</t>
   </si>
   <si>
-    <t>Nock-Ten</t>
-  </si>
-  <si>
     <t>Oli</t>
   </si>
   <si>
@@ -3527,7 +3521,7 @@
     <t>Names of Greek letters, sometimes used by agencies as extra names.</t>
   </si>
   <si>
-    <t>Extra names (as per user feedback).</t>
+    <t>Extra names. Initially constructed as the intersection of names in the file `Extra-names.xlsx` and those in the file `IBTRACS-names.xlsx`. To be augmented according to user feedback.</t>
   </si>
 </sst>
 </file>
@@ -5827,9 +5821,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6310,17 +6306,17 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1144</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
@@ -6355,17 +6351,17 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1152</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
@@ -6376,16 +6372,6 @@
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>1157</v>
       </c>
     </row>
   </sheetData>
@@ -6397,8 +6383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6502,15 +6488,15 @@
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1160</v>
       </c>
     </row>
   </sheetData>
